--- a/features_importance.xlsx
+++ b/features_importance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sghedu-my.sharepoint.com/personal/rr109174_student_sgh_waw_pl/Documents/Semestr 8/DS_Python/F1-prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_07CDCA6E58510E0E62355476585DCE3A8747C677" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EE3D897-2CE4-4331-A470-BB7FCEAA2E23}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_2281DD82DE5D3C0F62355476585DCE3A87471654" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D82C7E88-05EA-414F-A83D-35545BA43126}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2175" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,366 +20,369 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>driver_rp_rel_std</t>
   </si>
   <si>
+    <t>start_position_2</t>
+  </si>
+  <si>
+    <t>start_position_1</t>
+  </si>
+  <si>
+    <t>start_position_3</t>
+  </si>
+  <si>
+    <t>start_position_4</t>
+  </si>
+  <si>
     <t>constructor_rp_rel_std</t>
   </si>
   <si>
-    <t>start_position_1</t>
-  </si>
-  <si>
-    <t>start_position_2</t>
+    <t>constructor_rank_2</t>
+  </si>
+  <si>
+    <t>raceId</t>
+  </si>
+  <si>
+    <t>red_bull</t>
+  </si>
+  <si>
+    <t>trend_ferrari</t>
+  </si>
+  <si>
+    <t>start_position_5</t>
+  </si>
+  <si>
+    <t>start_position_6</t>
+  </si>
+  <si>
+    <t>trend_red_bull</t>
+  </si>
+  <si>
+    <t>start_position_7</t>
+  </si>
+  <si>
+    <t>driver_rank_1</t>
+  </si>
+  <si>
+    <t>driver_rank_5</t>
+  </si>
+  <si>
+    <t>constructor_rank_3</t>
+  </si>
+  <si>
+    <t>trend_mclaren</t>
+  </si>
+  <si>
+    <t>driver_rank_6</t>
+  </si>
+  <si>
+    <t>mercedes</t>
+  </si>
+  <si>
+    <t>start_position_8</t>
+  </si>
+  <si>
+    <t>constructor_rank_1</t>
+  </si>
+  <si>
+    <t>avg_season_pit_stop_duration</t>
+  </si>
+  <si>
+    <t>start_position_13</t>
+  </si>
+  <si>
+    <t>driver_rank_2</t>
+  </si>
+  <si>
+    <t>constructor_rank_6</t>
+  </si>
+  <si>
+    <t>ferrari</t>
+  </si>
+  <si>
+    <t>driver_rank_4</t>
+  </si>
+  <si>
+    <t>constructor_rank_5</t>
+  </si>
+  <si>
+    <t>start_position_9</t>
+  </si>
+  <si>
+    <t>trend_williams</t>
+  </si>
+  <si>
+    <t>driver_rank_9</t>
+  </si>
+  <si>
+    <t>australian_grand_prix</t>
+  </si>
+  <si>
+    <t>constructor_rank_7</t>
+  </si>
+  <si>
+    <t>emilia_romagna_grand_prix</t>
+  </si>
+  <si>
+    <t>start_position_18</t>
+  </si>
+  <si>
+    <t>driver_rank_3</t>
+  </si>
+  <si>
+    <t>trend_hungarian_grand_prix</t>
+  </si>
+  <si>
+    <t>start_position_16</t>
+  </si>
+  <si>
+    <t>italian_grand_prix</t>
+  </si>
+  <si>
+    <t>start_position_10</t>
+  </si>
+  <si>
+    <t>trend_haas_f1_team</t>
+  </si>
+  <si>
+    <t>trend_malaysian_grand_prix</t>
+  </si>
+  <si>
+    <t>force_india</t>
+  </si>
+  <si>
+    <t>start_position_11</t>
+  </si>
+  <si>
+    <t>trend_bahrain_grand_prix</t>
+  </si>
+  <si>
+    <t>singapore_grand_prix</t>
+  </si>
+  <si>
+    <t>williams</t>
+  </si>
+  <si>
+    <t>trend_abu_dhabi_grand_prix</t>
+  </si>
+  <si>
+    <t>start_position_17</t>
+  </si>
+  <si>
+    <t>trend_caterham</t>
+  </si>
+  <si>
+    <t>azerbaijan_grand_prix</t>
+  </si>
+  <si>
+    <t>start_position_20</t>
+  </si>
+  <si>
+    <t>trend_lotus_f1</t>
+  </si>
+  <si>
+    <t>start_position_21</t>
+  </si>
+  <si>
+    <t>start_position_22</t>
+  </si>
+  <si>
+    <t>trend_manor_marussia</t>
+  </si>
+  <si>
+    <t>trend_marussia</t>
+  </si>
+  <si>
+    <t>constructor_rank_11</t>
+  </si>
+  <si>
+    <t>marussia</t>
+  </si>
+  <si>
+    <t>manor_marussia</t>
+  </si>
+  <si>
+    <t>european_grand_prix</t>
+  </si>
+  <si>
+    <t>japanese_grand_prix</t>
+  </si>
+  <si>
+    <t>driver_rank_24</t>
+  </si>
+  <si>
+    <t>saudi_arabian_grand_prix</t>
+  </si>
+  <si>
+    <t>driver_rank_23</t>
+  </si>
+  <si>
+    <t>united_states_grand_prix</t>
+  </si>
+  <si>
+    <t>trend_australian_grand_prix</t>
+  </si>
+  <si>
+    <t>driver_rank_14</t>
+  </si>
+  <si>
+    <t>constructor_rank_9</t>
+  </si>
+  <si>
+    <t>trend_emilia_romagna_grand_prix</t>
+  </si>
+  <si>
+    <t>trend_european_grand_prix</t>
+  </si>
+  <si>
+    <t>constructor_rank_10</t>
+  </si>
+  <si>
+    <t>caterham</t>
+  </si>
+  <si>
+    <t>lotus_f1</t>
+  </si>
+  <si>
+    <t>start_position_14</t>
+  </si>
+  <si>
+    <t>constructor_rank_8</t>
+  </si>
+  <si>
+    <t>monaco_grand_prix</t>
+  </si>
+  <si>
+    <t>belgian_grand_prix</t>
+  </si>
+  <si>
+    <t>driver_rank_8</t>
+  </si>
+  <si>
+    <t>start_position_12</t>
+  </si>
+  <si>
+    <t>brazilian_grand_prix</t>
+  </si>
+  <si>
+    <t>start_position_19</t>
+  </si>
+  <si>
+    <t>driver_rank_12</t>
+  </si>
+  <si>
+    <t>trend_british_grand_prix</t>
+  </si>
+  <si>
+    <t>alpine_f1_team</t>
+  </si>
+  <si>
+    <t>haas_f1_team</t>
+  </si>
+  <si>
+    <t>abu_dhabi_grand_prix</t>
+  </si>
+  <si>
+    <t>russian_grand_prix</t>
+  </si>
+  <si>
+    <t>austrian_grand_prix</t>
+  </si>
+  <si>
+    <t>trend_japanese_grand_prix</t>
+  </si>
+  <si>
+    <t>trend_aston_martin</t>
+  </si>
+  <si>
+    <t>start_position_15</t>
+  </si>
+  <si>
+    <t>trend_canadian_grand_prix</t>
+  </si>
+  <si>
+    <t>trend_chinese_grand_prix</t>
+  </si>
+  <si>
+    <t>trend_brazilian_grand_prix</t>
+  </si>
+  <si>
+    <t>trend_force_india</t>
+  </si>
+  <si>
+    <t>trend_alpine_f1_team</t>
+  </si>
+  <si>
+    <t>trend_azerbaijan_grand_prix</t>
+  </si>
+  <si>
+    <t>trend_toro_rosso</t>
+  </si>
+  <si>
+    <t>british_grand_prix</t>
+  </si>
+  <si>
+    <t>trend_singapore_grand_prix</t>
+  </si>
+  <si>
+    <t>trend_russian_grand_prix</t>
+  </si>
+  <si>
+    <t>trend_monaco_grand_prix</t>
+  </si>
+  <si>
+    <t>bahrain_grand_prix</t>
+  </si>
+  <si>
+    <t>chinese_grand_prix</t>
+  </si>
+  <si>
+    <t>driver_rank_10</t>
+  </si>
+  <si>
+    <t>malaysian_grand_prix</t>
+  </si>
+  <si>
+    <t>spanish_grand_prix</t>
+  </si>
+  <si>
+    <t>hungarian_grand_prix</t>
+  </si>
+  <si>
+    <t>trend_belgian_grand_prix</t>
+  </si>
+  <si>
+    <t>driver_rank_13</t>
+  </si>
+  <si>
+    <t>canadian_grand_prix</t>
+  </si>
+  <si>
+    <t>mclaren</t>
+  </si>
+  <si>
+    <t>trend_italian_grand_prix</t>
+  </si>
+  <si>
+    <t>trend_renault</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>driver_rank_7</t>
+  </si>
+  <si>
+    <t>constructor_rank_4</t>
+  </si>
+  <si>
+    <t>trend_mercedes</t>
   </si>
   <si>
     <t>day</t>
-  </si>
-  <si>
-    <t>start_position_3</t>
-  </si>
-  <si>
-    <t>raceId</t>
-  </si>
-  <si>
-    <t>start_position_4</t>
-  </si>
-  <si>
-    <t>avg_season_pit_stop_duration</t>
-  </si>
-  <si>
-    <t>trend_ferrari</t>
-  </si>
-  <si>
-    <t>trend_red_bull</t>
-  </si>
-  <si>
-    <t>constructor_rank_2</t>
-  </si>
-  <si>
-    <t>start_position_5</t>
-  </si>
-  <si>
-    <t>start_position_6</t>
-  </si>
-  <si>
-    <t>trend_mclaren</t>
-  </si>
-  <si>
-    <t>red_bull</t>
-  </si>
-  <si>
-    <t>start_position_7</t>
-  </si>
-  <si>
-    <t>driver_rank_5</t>
-  </si>
-  <si>
-    <t>driver_rank_6</t>
-  </si>
-  <si>
-    <t>trend_mercedes</t>
-  </si>
-  <si>
-    <t>driver_rank_2</t>
-  </si>
-  <si>
-    <t>driver_rank_1</t>
-  </si>
-  <si>
-    <t>mercedes</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>start_position_8</t>
-  </si>
-  <si>
-    <t>constructor_rank_3</t>
-  </si>
-  <si>
-    <t>driver_rank_4</t>
-  </si>
-  <si>
-    <t>ferrari</t>
-  </si>
-  <si>
-    <t>constructor_rank_1</t>
-  </si>
-  <si>
-    <t>constructor_rank_5</t>
-  </si>
-  <si>
-    <t>driver_rank_3</t>
-  </si>
-  <si>
-    <t>constructor_rank_6</t>
-  </si>
-  <si>
-    <t>driver_rank_7</t>
-  </si>
-  <si>
-    <t>start_position_13</t>
-  </si>
-  <si>
-    <t>constructor_rank_4</t>
-  </si>
-  <si>
-    <t>start_position_9</t>
-  </si>
-  <si>
-    <t>trend_williams</t>
-  </si>
-  <si>
-    <t>trend_force_india</t>
-  </si>
-  <si>
-    <t>italian_grand_prix</t>
-  </si>
-  <si>
-    <t>start_position_14</t>
-  </si>
-  <si>
-    <t>austrian_grand_prix</t>
-  </si>
-  <si>
-    <t>driver_rank_14</t>
-  </si>
-  <si>
-    <t>driver_rank_9</t>
-  </si>
-  <si>
-    <t>trend_hungarian_grand_prix</t>
-  </si>
-  <si>
-    <t>trend_monaco_grand_prix</t>
-  </si>
-  <si>
-    <t>trend_belgian_grand_prix</t>
-  </si>
-  <si>
-    <t>abu_dhabi_grand_prix</t>
-  </si>
-  <si>
-    <t>belgian_grand_prix</t>
-  </si>
-  <si>
-    <t>driver_rank_8</t>
-  </si>
-  <si>
-    <t>start_position_11</t>
-  </si>
-  <si>
-    <t>trend_bahrain_grand_prix</t>
-  </si>
-  <si>
-    <t>azerbaijan_grand_prix</t>
-  </si>
-  <si>
-    <t>mclaren</t>
-  </si>
-  <si>
-    <t>start_position_18</t>
-  </si>
-  <si>
-    <t>trend_italian_grand_prix</t>
-  </si>
-  <si>
-    <t>monaco_grand_prix</t>
-  </si>
-  <si>
-    <t>trend_abu_dhabi_grand_prix</t>
-  </si>
-  <si>
-    <t>bahrain_grand_prix</t>
-  </si>
-  <si>
-    <t>british_grand_prix</t>
-  </si>
-  <si>
-    <t>trend_aston_martin</t>
-  </si>
-  <si>
-    <t>hungarian_grand_prix</t>
-  </si>
-  <si>
-    <t>canadian_grand_prix</t>
-  </si>
-  <si>
-    <t>trend_singapore_grand_prix</t>
-  </si>
-  <si>
-    <t>trend_azerbaijan_grand_prix</t>
-  </si>
-  <si>
-    <t>united_states_grand_prix</t>
-  </si>
-  <si>
-    <t>trend_british_grand_prix</t>
-  </si>
-  <si>
-    <t>constructor_rank_7</t>
-  </si>
-  <si>
-    <t>trend_russian_grand_prix</t>
-  </si>
-  <si>
-    <t>trend_haas_f1_team</t>
-  </si>
-  <si>
-    <t>trend_alpine_f1_team</t>
-  </si>
-  <si>
-    <t>force_india</t>
-  </si>
-  <si>
-    <t>australian_grand_prix</t>
-  </si>
-  <si>
-    <t>start_position_16</t>
-  </si>
-  <si>
-    <t>russian_grand_prix</t>
-  </si>
-  <si>
-    <t>spanish_grand_prix</t>
-  </si>
-  <si>
-    <t>emilia_romagna_grand_prix</t>
-  </si>
-  <si>
-    <t>williams</t>
-  </si>
-  <si>
-    <t>singapore_grand_prix</t>
-  </si>
-  <si>
-    <t>driver_rank_12</t>
-  </si>
-  <si>
-    <t>brazilian_grand_prix</t>
-  </si>
-  <si>
-    <t>driver_rank_10</t>
-  </si>
-  <si>
-    <t>chinese_grand_prix</t>
-  </si>
-  <si>
-    <t>constructor_rank_8</t>
-  </si>
-  <si>
-    <t>haas_f1_team</t>
-  </si>
-  <si>
-    <t>malaysian_grand_prix</t>
-  </si>
-  <si>
-    <t>european_grand_prix</t>
-  </si>
-  <si>
-    <t>constructor_rank_9</t>
-  </si>
-  <si>
-    <t>constructor_rank_11</t>
-  </si>
-  <si>
-    <t>driver_rank_23</t>
-  </si>
-  <si>
-    <t>driver_rank_24</t>
-  </si>
-  <si>
-    <t>saudi_arabian_grand_prix</t>
-  </si>
-  <si>
-    <t>trend_malaysian_grand_prix</t>
-  </si>
-  <si>
-    <t>start_position_17</t>
-  </si>
-  <si>
-    <t>trend_australian_grand_prix</t>
-  </si>
-  <si>
-    <t>start_position_22</t>
-  </si>
-  <si>
-    <t>caterham</t>
-  </si>
-  <si>
-    <t>trend_japanese_grand_prix</t>
-  </si>
-  <si>
-    <t>lotus_f1</t>
-  </si>
-  <si>
-    <t>manor_marussia</t>
-  </si>
-  <si>
-    <t>marussia</t>
-  </si>
-  <si>
-    <t>trend_caterham</t>
-  </si>
-  <si>
-    <t>trend_european_grand_prix</t>
-  </si>
-  <si>
-    <t>trend_emilia_romagna_grand_prix</t>
-  </si>
-  <si>
-    <t>trend_manor_marussia</t>
-  </si>
-  <si>
-    <t>trend_marussia</t>
-  </si>
-  <si>
-    <t>trend_lotus_f1</t>
-  </si>
-  <si>
-    <t>start_position_12</t>
-  </si>
-  <si>
-    <t>start_position_19</t>
-  </si>
-  <si>
-    <t>start_position_20</t>
-  </si>
-  <si>
-    <t>start_position_21</t>
-  </si>
-  <si>
-    <t>start_position_10</t>
-  </si>
-  <si>
-    <t>trend_toro_rosso</t>
-  </si>
-  <si>
-    <t>japanese_grand_prix</t>
-  </si>
-  <si>
-    <t>start_position_15</t>
-  </si>
-  <si>
-    <t>trend_brazilian_grand_prix</t>
-  </si>
-  <si>
-    <t>trend_canadian_grand_prix</t>
-  </si>
-  <si>
-    <t>trend_chinese_grand_prix</t>
-  </si>
-  <si>
-    <t>alpine_f1_team</t>
-  </si>
-  <si>
-    <t>driver_rank_13</t>
-  </si>
-  <si>
-    <t>trend_renault</t>
   </si>
 </sst>
 </file>
@@ -744,11 +747,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -766,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.18948992132632689</v>
+        <v>6.6154117647844707E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -774,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1148757868588826</v>
+        <v>6.12148696511398E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -782,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.5997651990673404E-2</v>
+        <v>5.630911764776101E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -790,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.4181049287831924E-2</v>
+        <v>5.3488215412269113E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -798,7 +799,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.0610991211222329E-2</v>
+        <v>3.7927137150260679E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -806,7 +807,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.9670708644157517E-2</v>
+        <v>3.7333528970063118E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -814,7 +815,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.7542206727538814E-2</v>
+        <v>1.4006117833591359E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -822,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.1580773852420901E-2</v>
+        <v>1.178125318604344E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -830,7 +831,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.9930221918569329E-2</v>
+        <v>1.118260417147874E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -838,7 +839,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.9475598410910147E-2</v>
+        <v>1.1127399393769369E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -846,7 +847,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.4901474549338332E-2</v>
+        <v>7.6385645425700362E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -854,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.7843081246428021E-2</v>
+        <v>6.9047852667598834E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -862,7 +863,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.6931118641642831E-2</v>
+        <v>6.3464540794594846E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -870,7 +871,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.361311686516299E-2</v>
+        <v>5.0297907959454546E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -878,7 +879,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.066187411681834E-2</v>
+        <v>4.5839776218653538E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -886,7 +887,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.8397681231242821E-3</v>
+        <v>4.3652245470468861E-3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -894,7 +895,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.5395816475188251E-3</v>
+        <v>3.9103240799268409E-3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -902,7 +903,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.5667008109869495E-3</v>
+        <v>3.9081837275179773E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -910,7 +911,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.538582702233944E-3</v>
+        <v>3.0389654558947488E-3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -918,7 +919,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.3643060517080928E-3</v>
+        <v>2.88091026626176E-3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -926,7 +927,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.8311583243535262E-3</v>
+        <v>2.4662994046093399E-3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -934,7 +935,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.8298135406784201E-3</v>
+        <v>2.3050335651491282E-3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -942,7 +943,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.8917033594479539E-3</v>
+        <v>2.1871081533709541E-3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -950,7 +951,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.6659507647741532E-3</v>
+        <v>1.9010708103738951E-3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -958,7 +959,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6.6508851214186811E-3</v>
+        <v>1.8480186723135669E-3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -966,7 +967,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6.5359035560468518E-3</v>
+        <v>1.117600340619918E-3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -974,7 +975,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6.3487495913856166E-3</v>
+        <v>1.09533335668206E-3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -982,7 +983,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.7210661780755286E-3</v>
+        <v>7.7393958302400816E-4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -990,7 +991,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.9496000329251281E-3</v>
+        <v>6.9000779725321144E-4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -998,7 +999,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.3050403737506914E-3</v>
+        <v>2.3386425760796301E-4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1006,7 +1007,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4.0839443356397E-3</v>
+        <v>2.1679283706088631E-4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1014,7 +1015,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3.0716275662481139E-3</v>
+        <v>1.4534651026325561E-4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1022,7 +1023,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.4216875613964021E-3</v>
+        <v>1.0391642081022391E-4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1030,7 +1031,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.786131652066902E-3</v>
+        <v>1.020637875217334E-4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1038,7 +1039,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.529057174767201E-3</v>
+        <v>9.439076699979676E-5</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -1046,7 +1047,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.3856512779369941E-3</v>
+        <v>9.2862701330598258E-5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1054,7 +1055,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.0205716018185211E-3</v>
+        <v>6.6538182241537852E-5</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1062,7 +1063,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>8.0560458406820907E-4</v>
+        <v>5.9496161025096578E-5</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1070,7 +1071,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7.5785310106495367E-4</v>
+        <v>4.0192769895996962E-5</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1078,7 +1079,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7.2980820077117592E-4</v>
+        <v>4.0041865541673441E-5</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -1086,7 +1087,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6.8351723668382827E-4</v>
+        <v>3.6750713493893808E-5</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1094,7 +1095,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6.6667998997893552E-4</v>
+        <v>3.2216380255234443E-5</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1102,7 +1103,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6.3407678805975647E-4</v>
+        <v>2.5287742346202789E-5</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -1110,7 +1111,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5.6966350026204098E-4</v>
+        <v>2.1240331264049669E-5</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -1118,7 +1119,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5.6964504914928102E-4</v>
+        <v>1.7119094221351719E-5</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -1126,7 +1127,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5.4821236721048767E-4</v>
+        <v>1.369165921829563E-5</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1134,7 +1135,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>4.4772079661278282E-4</v>
+        <v>7.3155384616274686E-6</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1142,7 +1143,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>4.2957376140695391E-4</v>
+        <v>4.5427990271962312E-6</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1150,7 +1151,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>4.0579024875028182E-4</v>
+        <v>1.379047872518413E-6</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1158,7 +1159,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3.9964101548458638E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -1166,7 +1167,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3.4971514801481748E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1174,7 +1175,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3.3268236625880741E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -1182,7 +1183,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3.0572007824275488E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -1190,7 +1191,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2.9144093493103088E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1198,7 +1199,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2.5660533771015848E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1206,7 +1207,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2.385452452005832E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1214,7 +1215,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2.2164358433676151E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1222,7 +1223,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2.12119250600773E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -1230,7 +1231,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.9762395949917129E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -1238,7 +1239,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.7964926821335551E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -1246,7 +1247,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.7849672065785031E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -1254,7 +1255,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.5247054472296019E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -1262,7 +1263,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.3593834772608341E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -1270,7 +1271,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.352719886052123E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -1278,7 +1279,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.2939736764437941E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -1286,7 +1287,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.266971270461714E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -1294,7 +1295,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.2163331282822879E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -1302,7 +1303,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.131999253318305E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -1310,7 +1311,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.0298964607879931E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -1318,7 +1319,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>9.9631957133639037E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -1326,7 +1327,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>9.4065677196464298E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -1334,7 +1335,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7.205096333596783E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -1342,7 +1343,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5.8828260350007883E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -1350,7 +1351,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5.4811628201401062E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -1358,7 +1359,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5.4808394457150911E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -1366,7 +1367,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>4.474882490611565E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -1374,7 +1375,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3.9956084258718771E-5</v>
+        <v>-3.4730381379022292E-6</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -1382,7 +1383,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>3.8508123052483077E-5</v>
+        <v>-6.7730066283022697E-6</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -1390,7 +1391,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>3.1172560686165688E-5</v>
+        <v>-1.297263646111713E-5</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -1398,7 +1399,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>2.8946883775537999E-5</v>
+        <v>-1.5020058799009031E-5</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -1406,7 +1407,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>2.4368482382186581E-5</v>
+        <v>-2.015408276041519E-5</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -1414,7 +1415,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1.5850035358100371E-5</v>
+        <v>-2.069438179574945E-5</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -1422,7 +1423,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1.011041994980477E-5</v>
+        <v>-2.3256574124630452E-5</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -1430,7 +1431,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7.3898306119701832E-6</v>
+        <v>-2.359089590546759E-5</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -1438,7 +1439,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>3.8299466923130684E-6</v>
+        <v>-2.7202502604262159E-5</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -1446,7 +1447,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>-3.020367207469121E-5</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -1454,7 +1455,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>-3.1159398875479918E-5</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -1462,7 +1463,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>-3.4579414625590672E-5</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -1470,7 +1471,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>-4.3804976783068393E-5</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -1478,7 +1479,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>-4.4199593654714588E-5</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -1486,7 +1487,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>-4.4889461110697582E-5</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -1494,7 +1495,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>-4.5278199800602437E-5</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -1502,7 +1503,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>-4.6289135343258177E-5</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -1510,7 +1511,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>-4.7058769172658721E-5</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -1518,7 +1519,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-5.2237361353335568E-5</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -1526,7 +1527,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-5.3461981564528749E-5</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -1534,7 +1535,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>-5.491949859792733E-5</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -1542,7 +1543,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-6.1037033403077429E-5</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -1550,7 +1551,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-6.4539158846832484E-5</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -1558,7 +1559,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>-7.001174255425458E-5</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -1566,7 +1567,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>-7.0353900564978922E-5</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -1574,7 +1575,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>-7.2561880036592358E-5</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -1582,7 +1583,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-7.5716951750748326E-5</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -1590,7 +1591,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>-9.3893361588204274E-5</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -1598,7 +1599,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>-9.9183664632551688E-5</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -1606,7 +1607,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>-1.006426053069775E-4</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -1614,7 +1615,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>-1.1655881407803819E-4</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -1622,7 +1623,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>-1.228884324248725E-4</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -1630,7 +1631,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>-1.2932142424262329E-4</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -1638,7 +1639,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>-1.7360758042401779E-4</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -1646,7 +1647,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-1.0004867999546811E-5</v>
+        <v>-1.8837653368879441E-4</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -1654,7 +1655,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-1.020551617968435E-5</v>
+        <v>-2.1226807535204011E-4</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -1662,7 +1663,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-1.0531677951375329E-5</v>
+        <v>-2.2736742166111769E-4</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -1670,7 +1671,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-2.293691117880581E-5</v>
+        <v>-2.3002818417969809E-4</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -1678,7 +1679,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-2.852034000747627E-5</v>
+        <v>-3.2946623690983668E-4</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -1686,7 +1687,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-4.3386850760518397E-5</v>
+        <v>-4.4712734832188519E-4</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -1694,7 +1695,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-4.3812511211682727E-5</v>
+        <v>-8.4078620373759792E-4</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -1702,7 +1703,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-9.7338922941481171E-5</v>
+        <v>-1.4604014271449859E-3</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -1710,7 +1711,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-1.062243039613553E-4</v>
+        <v>-1.699286855658611E-3</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -1718,7 +1719,15 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-2.27635054317743E-4</v>
+        <v>-2.1303715145753132E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>-6.5375470633494363E-3</v>
       </c>
     </row>
   </sheetData>
